--- a/data/output/FV2504_FV2410/UTILMD/55053.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55053.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="186">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="186">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -699,6 +699,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U77" totalsRowShown="0">
+  <autoFilter ref="A1:U77"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -988,7 +1018,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4564,5 +4597,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55053.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55053.xlsx
@@ -908,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -931,6 +931,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -939,6 +942,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1381,7 +1387,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1745,7 +1751,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1891,7 +1897,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2093,7 +2099,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2401,7 +2407,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2601,7 +2607,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2975,7 +2981,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3283,7 +3289,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3465,26 +3471,26 @@
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="10" t="s">
         <v>178</v>
       </c>
       <c r="M43" s="5"/>
@@ -3502,33 +3508,33 @@
       <c r="A44" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9" t="s">
+      <c r="J44" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10" t="s">
         <v>178</v>
       </c>
       <c r="M44" s="5"/>
@@ -3546,33 +3552,33 @@
       <c r="A45" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9" t="s">
+      <c r="J45" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="10" t="s">
         <v>178</v>
       </c>
       <c r="M45" s="5"/>
@@ -3590,31 +3596,31 @@
       <c r="A46" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="s">
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="J46" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>178</v>
       </c>
       <c r="M46" s="5"/>
@@ -3632,31 +3638,31 @@
       <c r="A47" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="s">
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9" t="s">
+      <c r="J47" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10" t="s">
         <v>178</v>
       </c>
       <c r="M47" s="5"/>
@@ -3674,31 +3680,31 @@
       <c r="A48" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>178</v>
       </c>
       <c r="M48" s="5"/>
@@ -3716,31 +3722,31 @@
       <c r="A49" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="J49" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>178</v>
       </c>
       <c r="M49" s="5"/>
@@ -3758,31 +3764,31 @@
       <c r="A50" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9" t="s">
+      <c r="J50" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10" t="s">
         <v>178</v>
       </c>
       <c r="M50" s="5"/>
@@ -3810,29 +3816,29 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11" t="s">
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11" t="s">
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="V51" s="11"/>
+      <c r="V51" s="13"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="5" t="s">
@@ -3848,35 +3854,35 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P52" s="11" t="s">
+      <c r="P52" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Q52" s="11" t="s">
+      <c r="Q52" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="R52" s="11" t="s">
+      <c r="R52" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11" t="s">
+      <c r="S52" s="13"/>
+      <c r="T52" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="U52" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="V52" s="11"/>
+      <c r="U52" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="V52" s="13"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="5" t="s">
@@ -3892,35 +3898,35 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="P53" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q53" s="11" t="s">
+      <c r="Q53" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="R53" s="11" t="s">
+      <c r="R53" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11" t="s">
+      <c r="S53" s="13"/>
+      <c r="T53" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="U53" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="V53" s="11"/>
+      <c r="U53" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="V53" s="13"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5" t="s">
@@ -3936,33 +3942,33 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11" t="s">
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11" t="s">
+      <c r="S54" s="13"/>
+      <c r="T54" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="U54" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="V54" s="11"/>
+      <c r="U54" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="V54" s="13"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -3978,33 +3984,33 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11" t="s">
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="U55" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="V55" s="11"/>
+      <c r="U55" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -4020,33 +4026,33 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11" t="s">
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="U56" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="V56" s="11"/>
+      <c r="U56" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4062,33 +4068,33 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11" t="s">
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11" t="s">
+      <c r="S57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="U57" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="V57" s="11"/>
+      <c r="U57" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -4104,55 +4110,55 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11" t="s">
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11" t="s">
+      <c r="S58" s="13"/>
+      <c r="T58" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="U58" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="V58" s="11"/>
+      <c r="U58" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5" t="s">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2" t="s">
         <v>170</v>
       </c>
       <c r="K59" s="6" t="s">
@@ -4161,23 +4167,23 @@
       <c r="L59" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N59" s="5" t="s">
+      <c r="N59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O59" s="5" t="s">
+      <c r="O59" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P59" s="5"/>
+      <c r="P59" s="2"/>
       <c r="Q59" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5" t="s">
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2" t="s">
         <v>170</v>
       </c>
       <c r="V59" s="6" t="s">
@@ -4383,7 +4389,7 @@
         <v>174</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -4591,7 +4597,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -4791,7 +4797,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -4973,48 +4979,48 @@
       <c r="V74" s="5"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5" t="s">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="K75" s="5"/>
+      <c r="K75" s="2"/>
       <c r="L75" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5" t="s">
+      <c r="N75" s="2"/>
+      <c r="O75" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P75" s="5"/>
+      <c r="P75" s="2"/>
       <c r="Q75" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5" t="s">
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="V75" s="5"/>
+      <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
